--- a/working_with_various_file/database.xlsx
+++ b/working_with_various_file/database.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6B7C90-62CD-4423-BD21-A2DFA08606E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC743B1-CE52-40C8-A5AA-26282562065D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>st_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +63,18 @@
   </si>
   <si>
     <t>yonghui@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hive@gmail.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -399,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -458,11 +470,29 @@
         <v>1234</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>1234</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{7E08332F-02C1-4A56-992E-AE9607833EBA}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{AFD65520-AAAD-4B35-A4D2-1D8DB6B8A78C}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{F054F748-A16A-4313-A28B-463D35497034}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
